--- a/medicine/Enfance/Elvira_Lindo/Elvira_Lindo.xlsx
+++ b/medicine/Enfance/Elvira_Lindo/Elvira_Lindo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elvira Lindo Garrido (née à Cadix le 23 janvier 1962) est une romancière, journaliste, scénariste et actrice et présentatrice occasionnelle espagnole. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle s'installe à Madrid à l'âge de 12 ans, scolarisée au Lycée Isabel la Católica[1] et étudie le journalisme à l'université complutense de Madrid. Elle travaille plus tard pour Radio Nacional de España et puis pour diverses publications. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'installe à Madrid à l'âge de 12 ans, scolarisée au Lycée Isabel la Católica et étudie le journalisme à l'université complutense de Madrid. Elle travaille plus tard pour Radio Nacional de España et puis pour diverses publications. 
 Ses œuvres les plus connues sont les livres pour enfants du personnage Manolito Gafotas. Elle habite actuellement à New York avec son fils et son mari, l'écrivain et académicien Antonio Muñoz Molina. 
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1998 : Prix national de Littérature infantile et juvénile, pour Los trapos sucios de Manolito Gafotas[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1998 : Prix national de Littérature infantile et juvénile, pour Los trapos sucios de Manolito Gafotas
 2005 : XIX Prix Biblioteca Breve, pour Una palabra tuya.</t>
         </is>
       </c>
@@ -576,22 +592,98 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans pour enfants
-Manolito Gafotas
-1994 : Manolito Gafotas.
+          <t>Romans pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Manolito Gafotas</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1994 : Manolito Gafotas.
 1995 : ¡Cómo molo!
 1996 : Pobre Manolito.
 1997 : Los trapos sucios de Manolito Gafotas.
 1998 : Manolito on the road.
 1999 : Yo y el imbécil.
 2002 : Manolito tiene un secreto.
-2012 : Mejor Manolo.
-Romans pour adultes
-1998 : El otro barrio.
+2012 : Mejor Manolo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1998 : El otro barrio.
 2002 : Algo más inesperado que la muerte. 
-2005 : Una palabra tuya.
-Contes
-1996 : Olivia y la carta a los Reyes Magos.
+2005 : Una palabra tuya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1996 : Olivia y la carta a los Reyes Magos.
 1997 : La abuela de Olivia se ha perdido.
 1997 : Olivia no quiere bañarse.
 1997 : Olivia no quiere ir al colegio.
@@ -600,21 +692,123 @@
 1997 : Olivia tiene cosas que hacer.
 1999 : Charanga y pandereta.
 2000 : Bolinga.
-2000 : Amigos del alma.
-Théâtre
-1996 : La ley de la selva.
-2004 : La sorpresa del roscón.
-Scénarios
-1998 : Manolito Gafotas.
+2000 : Amigos del alma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1996 : La ley de la selva.
+2004 : La sorpresa del roscón.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1998 : Manolito Gafotas.
 1998 : La primera noche de mi vida.
 2000 : Ataque verbal.
 2000 : Plenilunio.
 2000 : El cielo abierto.
 2008 : Una palabra tuya.
 2010: Lo que me queda por vivir.
-2014: La vida inesperada.
-Essais
-2000 : Ser compañera, en: Ser mujer de Laura Freixas.
+2014: La vida inesperada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2000 : Ser compañera, en: Ser mujer de Laura Freixas.
 2001 : Tinto de verano.
 2002 : Tinto de verano 2 : el mundo es un pañuelo; de Madrid a Nueva York.
 2003 : Otro verano contigo: Tinto de verano 3.
@@ -622,31 +816,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Elvira_Lindo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvira_Lindo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Actrice</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1998 : La primera noche de mi vida
 1999 : Manolito Gafotas
